--- a/data/trans_camb/P25A_3_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_3_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -647,32 +695,62 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
         </is>
       </c>
     </row>
@@ -700,12 +778,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -726,6 +804,36 @@
       <c r="K5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,62</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,62</t>
         </is>
       </c>
     </row>
@@ -753,32 +861,62 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -834,6 +972,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,6</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
         </is>
       </c>
     </row>
@@ -901,22 +1099,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,0</t>
+          <t>-2,58; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,0</t>
+          <t>-2,37; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,0</t>
+          <t>-0,66; 3,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,04</t>
+          <t>-4,74; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -926,22 +1124,52 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,0</t>
+          <t>0,0; 3,95</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,95</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 0,89</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 0,0</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,29; 2,2</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 0,79</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,98</t>
         </is>
       </c>
     </row>
@@ -964,37 +1192,67 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>153,48%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>19,83%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6,94%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>156,94%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-44,56%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1050,6 +1308,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,91</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 0,0</t>
+          <t>-2,56; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 0,0</t>
+          <t>-2,58; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 23,23</t>
+          <t>-1,84; 1,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,64</t>
+          <t>-1,0; 1,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,29</t>
+          <t>-1,88; 1,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,0</t>
+          <t>-1,6; 0,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,12</t>
+          <t>-1,87; 0,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 0,0</t>
+          <t>-0,94; 3,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 15,11</t>
+          <t>-4,07; 0,4</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,99</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; -0,0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; -0,0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 2,06</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 0,71</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-0,98; 0,94</t>
         </is>
       </c>
     </row>
@@ -1180,37 +1528,67 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>857,29%</t>
+          <t>-37,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-48,41%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-52,6%</t>
+          <t>-36,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-58,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-77,0%</t>
+          <t>-55,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-78,95%</t>
+          <t>97,75%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>618,34%</t>
+          <t>-71,67%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-80,79%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-79,65%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>24,86%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-45,96%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-2,88%</t>
         </is>
       </c>
     </row>
@@ -1266,6 +1644,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 1111,46</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,29</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-1,5</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,02</t>
+          <t>-1,4; 1,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,84</t>
+          <t>-0,74; 2,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 17,07</t>
+          <t>0,38; 4,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 0,98</t>
+          <t>-5,52; -0,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,89</t>
+          <t>-2,9; 0,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 10,52</t>
+          <t>-0,96; 0,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,71</t>
+          <t>-0,63; 1,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,45</t>
+          <t>0,48; 5,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,14; 9,57</t>
+          <t>-3,11; 2,35</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,01; 4,13</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 0,8</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 1,49</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 4,04</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,4; 0,14</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 1,96</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-15,61%</t>
+          <t>-1,72%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>59,12%</t>
+          <t>76,95%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>600,92%</t>
+          <t>363,56%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>-86,68%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>173,43%</t>
+          <t>-58,63%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>631,93%</t>
+          <t>-2,88%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-8,26%</t>
+          <t>151,66%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>661,94%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>639,76%</t>
+          <t>-8,64%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>439,32%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-1,89%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>102,23%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>463,85%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-53,93%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>76,09%</t>
         </is>
       </c>
     </row>
@@ -1449,12 +1947,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,07; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 100,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1474,12 +1972,42 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-67,2; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,3; 235,77</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-63,98; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>42,89; 2398,87</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-84,73; 24,48</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-74,17; 1171,89</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>3,3</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,3</t>
+          <t>-1,89; 2,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,17</t>
+          <t>-2,52; 1,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 11,98</t>
+          <t>0,29; 6,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,24</t>
+          <t>-4,65; 2,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,95</t>
+          <t>-1,6; 4,98</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,94; 18,77</t>
+          <t>-2,38; 1,29</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 1,36</t>
+          <t>-1,32; 3,15</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,69</t>
+          <t>0,86; 8,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,75; 11,69</t>
+          <t>-4,47; 4,58</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 5,04</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 1,55</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 1,72</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>1,32; 6,13</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 2,48</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 3,94</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>27,18%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-23,44%</t>
+          <t>-22,54%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>282,37%</t>
+          <t>224,67%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-11,9%</t>
+          <t>-29,01%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>117,89%</t>
+          <t>75,24%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1194,04%</t>
+          <t>-16,5%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>89,76%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>34,32%</t>
+          <t>370,03%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>660,81%</t>
+          <t>8,53%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>30,28%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>9,2%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>26,3%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>287,66%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-9,04%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>42,57%</t>
         </is>
       </c>
     </row>
@@ -1655,7 +2273,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,16; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1665,37 +2283,67 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,93; 1275,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,09; 108,06</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-76,11; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>144,02; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-77,12; 381,73</t>
+          <t>-95,27; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-66,8; 407,33</t>
+          <t>-64,71; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>150,97; 2433,14</t>
+          <t>-66,16; 203,56</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-62,15; 238,46</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-77,86; 341,62</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-64,39; 394,46</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>50,55; 1208,4</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-56,99; 83,48</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-33,33; 263,35</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>-4,43</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>3,38</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,22</t>
+          <t>0,39; 3,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,26</t>
+          <t>0,37; 5,92</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,48</t>
+          <t>0,0; 7,5</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 2,99</t>
+          <t>-3,4; 5,53</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 2,43</t>
+          <t>-0,22; 6,9</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 16,6</t>
+          <t>-4,01; 3,64</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 2,51</t>
+          <t>-4,67; 2,84</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 2,28</t>
+          <t>-0,48; 9,86</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 10,41</t>
+          <t>-11,1; -0,22</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 3,43</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 2,92</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 2,85</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 6,96</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-5,92; 1,28</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 3,61</t>
         </is>
       </c>
     </row>
@@ -1833,32 +2541,62 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>60,13%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-13,93%</t>
+          <t>293,38%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>155,12%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>42,68%</t>
+          <t>-2,13%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>27,1%</t>
+          <t>168,47%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>213,18%</t>
+          <t>-61,63%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>16,9%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>58,93%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>49,17%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>222,46%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-40,47%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>71,48%</t>
         </is>
       </c>
     </row>
@@ -1886,32 +2624,62 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-79,68; 354,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-84,73; 298,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,34; 480,21</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-63,89; 621,57</t>
+          <t>-86,65; 296,57</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-76,24; 529,3</t>
+          <t>-37,78; 1146,89</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 3105,13</t>
+          <t>-89,72; 6,31</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-82,25; 693,0</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-71,02; 558,11</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-72,28; 550,03</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-24,17; 1474,72</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-77,85; 49,67</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-53,79; 578,88</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-0,88</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
           <t>0,05</t>
         </is>
       </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>4,6</t>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 0,53</t>
+          <t>-0,55; 0,61</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,63</t>
+          <t>-0,52; 0,72</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,52; 7,57</t>
+          <t>0,49; 2,36</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,68</t>
+          <t>-1,63; 0,59</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,77</t>
+          <t>-0,28; 1,56</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,08; 9,99</t>
+          <t>-0,83; 0,79</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,47</t>
+          <t>-0,82; 0,86</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,52</t>
+          <t>0,68; 3,3</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,33</t>
+          <t>-2,3; 0,55</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-0,31; 1,75</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 0,51</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 0,59</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 2,45</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 0,15</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 1,31</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>667,12%</t>
+          <t>231,08%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>-29,53%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>71,48%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>643,79%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>228,62%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>653,97%</t>
+          <t>-31,5%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>62,01%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>14,38%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>229,63%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-31,0%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>65,71%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-65,49; 201,81</t>
+          <t>-65,57; 255,64</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-61,43; 230,78</t>
+          <t>-61,69; 234,83</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>187,19; 2163,85</t>
+          <t>40,29; 768,59</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-67,68; 146,94</t>
+          <t>-67,83; 49,72</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-60,91; 176,01</t>
+          <t>-35,53; 367,42</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>107,94; 2199,24</t>
+          <t>-60,84; 225,71</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-51,02; 107,24</t>
+          <t>-62,04; 206,15</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-47,53; 121,87</t>
+          <t>19,77; 715,98</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>259,64; 1487,78</t>
+          <t>-61,28; 29,6</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-22,78; 241,52</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-48,98; 106,08</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-44,31; 131,53</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>63,31; 477,63</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-57,23; 8,38</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-10,29; 201,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
